--- a/MVAPICH/Results/NoleLand/NewSystem/SecureAlltoall/New-10-rep/10rep-NS-AlltoAll-MVAPICH.xlsx
+++ b/MVAPICH/Results/NoleLand/NewSystem/SecureAlltoall/New-10-rep/10rep-NS-AlltoAll-MVAPICH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" state="visible" r:id="rId2"/>
@@ -473,10 +473,10 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -625,12 +625,15 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
+        <f aca="false">AVERAGE(G5:K5)</f>
         <v>26.068</v>
       </c>
       <c r="N5" s="10" t="n">
+        <f aca="false">STDEV(G5:K5)</f>
         <v>0.0334664010613627</v>
       </c>
       <c r="O5" s="10" t="n">
+        <f aca="false">100*N5/M5</f>
         <v>0.128381161045583</v>
       </c>
     </row>
@@ -670,12 +673,15 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
+        <f aca="false">AVERAGE(G6:K6)</f>
         <v>25.914</v>
       </c>
       <c r="N6" s="10" t="n">
+        <f aca="false">STDEV(G6:K6)</f>
         <v>0.164103625797847</v>
       </c>
       <c r="O6" s="10" t="n">
+        <f aca="false">100*N6/M6</f>
         <v>0.633262428794657</v>
       </c>
     </row>
@@ -715,12 +721,15 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
+        <f aca="false">AVERAGE(G7:K7)</f>
         <v>28.38</v>
       </c>
       <c r="N7" s="10" t="n">
+        <f aca="false">STDEV(G7:K7)</f>
         <v>0.0578791845139513</v>
       </c>
       <c r="O7" s="10" t="n">
+        <f aca="false">100*N7/M7</f>
         <v>0.203943567702436</v>
       </c>
     </row>
@@ -760,12 +769,15 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
+        <f aca="false">AVERAGE(G8:K8)</f>
         <v>29.368</v>
       </c>
       <c r="N8" s="10" t="n">
+        <f aca="false">STDEV(G8:K8)</f>
         <v>0.0576194411635516</v>
       </c>
       <c r="O8" s="10" t="n">
+        <f aca="false">100*N8/M8</f>
         <v>0.196198042643529</v>
       </c>
     </row>
@@ -805,12 +817,15 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
+        <f aca="false">AVERAGE(G9:K9)</f>
         <v>30.81</v>
       </c>
       <c r="N9" s="10" t="n">
+        <f aca="false">STDEV(G9:K9)</f>
         <v>0.122882057274446</v>
       </c>
       <c r="O9" s="10" t="n">
+        <f aca="false">100*N9/M9</f>
         <v>0.398838225493171</v>
       </c>
     </row>
@@ -850,12 +865,15 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
+        <f aca="false">AVERAGE(G10:K10)</f>
         <v>33.992</v>
       </c>
       <c r="N10" s="10" t="n">
+        <f aca="false">STDEV(G10:K10)</f>
         <v>0.0983361581515156</v>
       </c>
       <c r="O10" s="10" t="n">
+        <f aca="false">100*N10/M10</f>
         <v>0.289292063284054</v>
       </c>
     </row>
@@ -895,12 +913,15 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
+        <f aca="false">AVERAGE(G11:K11)</f>
         <v>42.866</v>
       </c>
       <c r="N11" s="10" t="n">
+        <f aca="false">STDEV(G11:K11)</f>
         <v>0.11458621208505</v>
       </c>
       <c r="O11" s="10" t="n">
+        <f aca="false">100*N11/M11</f>
         <v>0.267312583597839</v>
       </c>
     </row>
@@ -940,12 +961,15 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="10" t="n">
+        <f aca="false">AVERAGE(G12:K12)</f>
         <v>64.904</v>
       </c>
       <c r="N12" s="10" t="n">
+        <f aca="false">STDEV(G12:K12)</f>
         <v>0.125817327900413</v>
       </c>
       <c r="O12" s="10" t="n">
+        <f aca="false">100*N12/M12</f>
         <v>0.193851423487632</v>
       </c>
     </row>
@@ -985,12 +1009,15 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="10" t="n">
+        <f aca="false">AVERAGE(G13:K13)</f>
         <v>158.05</v>
       </c>
       <c r="N13" s="10" t="n">
+        <f aca="false">STDEV(G13:K13)</f>
         <v>0.440511066830329</v>
       </c>
       <c r="O13" s="10" t="n">
+        <f aca="false">100*N13/M13</f>
         <v>0.278716271325738</v>
       </c>
     </row>
@@ -1030,12 +1057,15 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="10" t="n">
+        <f aca="false">AVERAGE(G14:K14)</f>
         <v>262</v>
       </c>
       <c r="N14" s="10" t="n">
+        <f aca="false">STDEV(G14:K14)</f>
         <v>0.903935838431039</v>
       </c>
       <c r="O14" s="10" t="n">
+        <f aca="false">100*N14/M14</f>
         <v>0.345013678790473</v>
       </c>
     </row>
@@ -1075,12 +1105,15 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="10" t="n">
+        <f aca="false">AVERAGE(G15:K15)</f>
         <v>507.146</v>
       </c>
       <c r="N15" s="10" t="n">
+        <f aca="false">STDEV(G15:K15)</f>
         <v>0.821480371037552</v>
       </c>
       <c r="O15" s="10" t="n">
+        <f aca="false">100*N15/M15</f>
         <v>0.16198104116715</v>
       </c>
     </row>
@@ -1120,12 +1153,15 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="10" t="n">
+        <f aca="false">AVERAGE(G16:K16)</f>
         <v>427.78</v>
       </c>
       <c r="N16" s="10" t="n">
+        <f aca="false">STDEV(G16:K16)</f>
         <v>3.91193686043115</v>
       </c>
       <c r="O16" s="10" t="n">
+        <f aca="false">100*N16/M16</f>
         <v>0.91447399608003</v>
       </c>
     </row>
@@ -1165,12 +1201,15 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="10" t="n">
+        <f aca="false">AVERAGE(G17:K17)</f>
         <v>752.658</v>
       </c>
       <c r="N17" s="10" t="n">
+        <f aca="false">STDEV(G17:K17)</f>
         <v>6.84718336252216</v>
       </c>
       <c r="O17" s="10" t="n">
+        <f aca="false">100*N17/M17</f>
         <v>0.909733685488251</v>
       </c>
     </row>
@@ -1210,12 +1249,15 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="10" t="n">
+        <f aca="false">AVERAGE(G18:K18)</f>
         <v>1572.042</v>
       </c>
       <c r="N18" s="10" t="n">
+        <f aca="false">STDEV(G18:K18)</f>
         <v>7.37431149328531</v>
       </c>
       <c r="O18" s="10" t="n">
+        <f aca="false">100*N18/M18</f>
         <v>0.469091251587763</v>
       </c>
     </row>
@@ -1255,12 +1297,15 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="10" t="n">
+        <f aca="false">AVERAGE(G19:K19)</f>
         <v>3950.292</v>
       </c>
       <c r="N19" s="10" t="n">
+        <f aca="false">STDEV(G19:K19)</f>
         <v>16.2547306960157</v>
       </c>
       <c r="O19" s="10" t="n">
+        <f aca="false">100*N19/M19</f>
         <v>0.41148175112158</v>
       </c>
     </row>
@@ -1300,12 +1345,15 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="10" t="n">
+        <f aca="false">AVERAGE(G20:K20)</f>
         <v>7904.346</v>
       </c>
       <c r="N20" s="10" t="n">
+        <f aca="false">STDEV(G20:K20)</f>
         <v>37.3060669328728</v>
       </c>
       <c r="O20" s="10" t="n">
+        <f aca="false">100*N20/M20</f>
         <v>0.471969052630956</v>
       </c>
     </row>
@@ -1345,12 +1393,15 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="10" t="n">
+        <f aca="false">AVERAGE(G21:K21)</f>
         <v>11658.544</v>
       </c>
       <c r="N21" s="10" t="n">
+        <f aca="false">STDEV(G21:K21)</f>
         <v>20.9203185922204</v>
       </c>
       <c r="O21" s="10" t="n">
+        <f aca="false">100*N21/M21</f>
         <v>0.179441949116634</v>
       </c>
     </row>
@@ -1390,12 +1441,15 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="10" t="n">
+        <f aca="false">AVERAGE(G22:K22)</f>
         <v>22215.154</v>
       </c>
       <c r="N22" s="10" t="n">
+        <f aca="false">STDEV(G22:K22)</f>
         <v>25.52314106845</v>
       </c>
       <c r="O22" s="10" t="n">
+        <f aca="false">100*N22/M22</f>
         <v>0.114890678086004</v>
       </c>
     </row>
@@ -1435,12 +1489,15 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="10" t="n">
+        <f aca="false">AVERAGE(G23:K23)</f>
         <v>43565.738</v>
       </c>
       <c r="N23" s="10" t="n">
+        <f aca="false">STDEV(G23:K23)</f>
         <v>48.6882744611054</v>
       </c>
       <c r="O23" s="10" t="n">
+        <f aca="false">100*N23/M23</f>
         <v>0.111758176714705</v>
       </c>
     </row>
@@ -2360,11 +2417,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.88"/>
@@ -5155,7 +5212,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -7043,7 +7100,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -8931,7 +8988,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -10819,7 +10876,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -12703,11 +12760,11 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -12856,6 +12913,7 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
+        <f aca="false">AVERAGE(G5:K5)</f>
         <v>544.742</v>
       </c>
       <c r="N5" s="10" t="n">
@@ -12901,6 +12959,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
+        <f aca="false">AVERAGE(G6:K6)</f>
         <v>546.48</v>
       </c>
       <c r="N6" s="10" t="n">
@@ -12946,6 +13005,7 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
+        <f aca="false">AVERAGE(G7:K7)</f>
         <v>557.404</v>
       </c>
       <c r="N7" s="10" t="n">
@@ -12991,6 +13051,7 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
+        <f aca="false">AVERAGE(G8:K8)</f>
         <v>562.298</v>
       </c>
       <c r="N8" s="10" t="n">
@@ -13036,6 +13097,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
+        <f aca="false">AVERAGE(G9:K9)</f>
         <v>543.996</v>
       </c>
       <c r="N9" s="10" t="n">
@@ -13081,6 +13143,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
+        <f aca="false">AVERAGE(G10:K10)</f>
         <v>554.708</v>
       </c>
       <c r="N10" s="10" t="n">
@@ -13126,6 +13189,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
+        <f aca="false">AVERAGE(G11:K11)</f>
         <v>570.268</v>
       </c>
       <c r="N11" s="10" t="n">
@@ -13171,6 +13235,7 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="10" t="n">
+        <f aca="false">AVERAGE(G12:K12)</f>
         <v>589.104</v>
       </c>
       <c r="N12" s="10" t="n">
@@ -13216,6 +13281,7 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="10" t="n">
+        <f aca="false">AVERAGE(G13:K13)</f>
         <v>684.802</v>
       </c>
       <c r="N13" s="10" t="n">
@@ -13261,6 +13327,7 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="10" t="n">
+        <f aca="false">AVERAGE(G14:K14)</f>
         <v>761.024</v>
       </c>
       <c r="N14" s="10" t="n">
@@ -13306,6 +13373,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="10" t="n">
+        <f aca="false">AVERAGE(G15:K15)</f>
         <v>1137.674</v>
       </c>
       <c r="N15" s="10" t="n">
@@ -13351,6 +13419,7 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="10" t="n">
+        <f aca="false">AVERAGE(G16:K16)</f>
         <v>1626.924</v>
       </c>
       <c r="N16" s="10" t="n">
@@ -13396,6 +13465,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="10" t="n">
+        <f aca="false">AVERAGE(G17:K17)</f>
         <v>2672.108</v>
       </c>
       <c r="N17" s="10" t="n">
@@ -13441,6 +13511,7 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="10" t="n">
+        <f aca="false">AVERAGE(G18:K18)</f>
         <v>5429.196</v>
       </c>
       <c r="N18" s="10" t="n">
@@ -13486,6 +13557,7 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="10" t="n">
+        <f aca="false">AVERAGE(G19:K19)</f>
         <v>13865.888</v>
       </c>
       <c r="N19" s="10" t="n">
@@ -13531,6 +13603,7 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="10" t="n">
+        <f aca="false">AVERAGE(G20:K20)</f>
         <v>29843.532</v>
       </c>
       <c r="N20" s="10" t="n">
@@ -13576,6 +13649,7 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="10" t="n">
+        <f aca="false">AVERAGE(G21:K21)</f>
         <v>60985.126</v>
       </c>
       <c r="N21" s="10" t="n">
@@ -13621,6 +13695,7 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="10" t="n">
+        <f aca="false">AVERAGE(G22:K22)</f>
         <v>124617.596</v>
       </c>
       <c r="N22" s="10" t="n">
@@ -13666,6 +13741,7 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="10" t="n">
+        <f aca="false">AVERAGE(G23:K23)</f>
         <v>233292.734</v>
       </c>
       <c r="N23" s="10" t="n">
@@ -14595,7 +14671,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -16483,7 +16559,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
@@ -18371,7 +18447,7 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="2" width="11.52"/>
